--- a/biology/Botanique/Brunello_di_Montalcino/Brunello_di_Montalcino.xlsx
+++ b/biology/Botanique/Brunello_di_Montalcino/Brunello_di_Montalcino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Brunello di Montalcino est un vin rouge d'Italie produit dans la région de Montalcino, ville de  la province de Sienne. Il est produit sous l'appellation DOCG.
@@ -513,7 +525,9 @@
           <t>Histoire du Brunello di Montalcino</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que le Brunello di Montalcino moderne soit une création de la famille Biondi Santi, la vocation du terroir de Montalcino de produire des crus de grande qualité est connue depuis plusieurs siècles. Déjà au Moyen Âge, les lois communales régissaient la date de début des vendanges et, même durant le siège de 1553, le vin ne manquait jamais. D’après Leandro Alberti (1550-1631),  Montalcino était  « souvent cité à cause des bons vins que l’on produit sur ces belles collines » (italien : molto nominato per li buoni vini che si cavano da quelli ameni colli.). Le fonctionnaire grand-ducal Bartolomeo Gherardini signala, à l’occasion de sa visite à Montalcino entre 1676 et 1677, que l’on produisait 6050 « some » de vin, décrit comme « vin corsé, mais disponible en quantité modeste ». En 1744, Charles Thompson dit « Montalcino n’est pas un village très connu, exception faite pour le goût de ses vins ». 
 Jusqu’à la seconde moitié du XIXe siècle, le vin le plus réputé de cette région était un vin blanc moelleux, appelé Moscadello di Montalcino. Le brunello est très récent, comparé à l'histoire millénaire du vin italien.
@@ -551,7 +565,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La dégustation de ce vin lui donne les caractéristiques suivantes
 Robe : rouge rubis intense, tendant au grenat avec le vieillissement
@@ -584,7 +600,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La structure de ce vin se marie avec des plats complexes tels que les viandes rouges ou toute sorte de gibier, servis accompagnés de champignons et truffes. Par ailleurs, le Brunello de Montalcino s'avère un choix possible pour accompagner les fromages. Certains suggèrent de le servir avec :
 Stufato à la pavesane
@@ -616,7 +634,9 @@
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La qualité du vin, son potentiel de vieillissement et ses caractéristiques peuvent varier énormément entre différents millésimes. En particulier, les conditions climatiques pendant la floraison, la nouaison et la véraison constituent un facteur de grande importance, qui marquera en profondeur le produit final.
 Parmi les meilleurs millésimes, on retient 1945, 1955, 1961, 1964, 1970, 1975, 1985, 1982, 1988, 1990, 1995, 1997, 2004, 2006 et 2010.
